--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ntn1-Neo1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ntn1-Neo1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.234872</v>
+        <v>1.524740333333333</v>
       </c>
       <c r="H2">
-        <v>6.704616</v>
+        <v>4.574221</v>
       </c>
       <c r="I2">
-        <v>0.2519183620528573</v>
+        <v>0.2062237893390968</v>
       </c>
       <c r="J2">
-        <v>0.2519183620528573</v>
+        <v>0.2062237893390969</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.661725</v>
+        <v>3.889188333333333</v>
       </c>
       <c r="N2">
-        <v>13.985175</v>
+        <v>11.667565</v>
       </c>
       <c r="O2">
-        <v>0.05162433427636418</v>
+        <v>0.04320782608967438</v>
       </c>
       <c r="P2">
-        <v>0.05162433427636419</v>
+        <v>0.04320782608967438</v>
       </c>
       <c r="Q2">
-        <v>10.4183586742</v>
+        <v>5.930002315762777</v>
       </c>
       <c r="R2">
-        <v>93.7652280678</v>
+        <v>53.37002084186499</v>
       </c>
       <c r="S2">
-        <v>0.01300511773297085</v>
+        <v>0.008910481625317341</v>
       </c>
       <c r="T2">
-        <v>0.01300511773297085</v>
+        <v>0.008910481625317343</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.234872</v>
+        <v>1.524740333333333</v>
       </c>
       <c r="H3">
-        <v>6.704616</v>
+        <v>4.574221</v>
       </c>
       <c r="I3">
-        <v>0.2519183620528573</v>
+        <v>0.2062237893390968</v>
       </c>
       <c r="J3">
-        <v>0.2519183620528573</v>
+        <v>0.2062237893390969</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>233.448043</v>
       </c>
       <c r="O3">
-        <v>0.8617410799646796</v>
+        <v>0.86451478461177</v>
       </c>
       <c r="P3">
-        <v>0.8617410799646797</v>
+        <v>0.8645147846117699</v>
       </c>
       <c r="Q3">
-        <v>173.9088315851653</v>
+        <v>118.6492156332781</v>
       </c>
       <c r="R3">
-        <v>1565.179484266488</v>
+        <v>1067.842940699503</v>
       </c>
       <c r="S3">
-        <v>0.2170884013783624</v>
+        <v>0.1782835148223123</v>
       </c>
       <c r="T3">
-        <v>0.2170884013783625</v>
+        <v>0.1782835148223124</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.234872</v>
+        <v>1.524740333333333</v>
       </c>
       <c r="H4">
-        <v>6.704616</v>
+        <v>4.574221</v>
       </c>
       <c r="I4">
-        <v>0.2519183620528573</v>
+        <v>0.2062237893390968</v>
       </c>
       <c r="J4">
-        <v>0.2519183620528573</v>
+        <v>0.2062237893390969</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.524995</v>
+        <v>0.359731</v>
       </c>
       <c r="N4">
-        <v>1.574985</v>
+        <v>1.079193</v>
       </c>
       <c r="O4">
-        <v>0.005813838734249621</v>
+        <v>0.003996513707975397</v>
       </c>
       <c r="P4">
-        <v>0.005813838734249622</v>
+        <v>0.003996513707975397</v>
       </c>
       <c r="Q4">
-        <v>1.17329662564</v>
+        <v>0.5484963648503333</v>
       </c>
       <c r="R4">
-        <v>10.55966963076</v>
+        <v>4.936467283653</v>
       </c>
       <c r="S4">
-        <v>0.001464612731171622</v>
+        <v>0.0008241762010043311</v>
       </c>
       <c r="T4">
-        <v>0.001464612731171622</v>
+        <v>0.0008241762010043313</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.234872</v>
+        <v>1.524740333333333</v>
       </c>
       <c r="H5">
-        <v>6.704616</v>
+        <v>4.574221</v>
       </c>
       <c r="I5">
-        <v>0.2519183620528573</v>
+        <v>0.2062237893390968</v>
       </c>
       <c r="J5">
-        <v>0.2519183620528573</v>
+        <v>0.2062237893390969</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.804242666666666</v>
+        <v>7.581867</v>
       </c>
       <c r="N5">
-        <v>20.412728</v>
+        <v>22.745601</v>
       </c>
       <c r="O5">
-        <v>0.07535075490757169</v>
+        <v>0.08423248315420773</v>
       </c>
       <c r="P5">
-        <v>0.07535075490757169</v>
+        <v>0.08423248315420773</v>
       </c>
       <c r="Q5">
-        <v>15.20661141693866</v>
+        <v>11.560378416869</v>
       </c>
       <c r="R5">
-        <v>136.859502752448</v>
+        <v>104.043405751821</v>
       </c>
       <c r="S5">
-        <v>0.01898223875576176</v>
+        <v>0.01737074186150236</v>
       </c>
       <c r="T5">
-        <v>0.01898223875576176</v>
+        <v>0.01737074186150236</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.234872</v>
+        <v>1.524740333333333</v>
       </c>
       <c r="H6">
-        <v>6.704616</v>
+        <v>4.574221</v>
       </c>
       <c r="I6">
-        <v>0.2519183620528573</v>
+        <v>0.2062237893390968</v>
       </c>
       <c r="J6">
-        <v>0.2519183620528573</v>
+        <v>0.2062237893390969</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.4939453333333334</v>
+        <v>0.3644006666666667</v>
       </c>
       <c r="N6">
-        <v>1.481836</v>
+        <v>1.093202</v>
       </c>
       <c r="O6">
-        <v>0.005469992117134781</v>
+        <v>0.004048392436372474</v>
       </c>
       <c r="P6">
-        <v>0.005469992117134781</v>
+        <v>0.004048392436372474</v>
       </c>
       <c r="Q6">
-        <v>1.103904594997333</v>
+        <v>0.5556163939602221</v>
       </c>
       <c r="R6">
-        <v>9.935141354976</v>
+        <v>5.000547545641999</v>
       </c>
       <c r="S6">
-        <v>0.001377991454590635</v>
+        <v>0.00083487482896047</v>
       </c>
       <c r="T6">
-        <v>0.001377991454590635</v>
+        <v>0.0008348748289604702</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>9.556730999999999</v>
       </c>
       <c r="I7">
-        <v>0.3590833569140672</v>
+        <v>0.4308548451232278</v>
       </c>
       <c r="J7">
-        <v>0.3590833569140671</v>
+        <v>0.4308548451232279</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.661725</v>
+        <v>3.889188333333333</v>
       </c>
       <c r="N7">
-        <v>13.985175</v>
+        <v>11.667565</v>
       </c>
       <c r="O7">
-        <v>0.05162433427636418</v>
+        <v>0.04320782608967438</v>
       </c>
       <c r="P7">
-        <v>0.05162433427636419</v>
+        <v>0.04320782608967438</v>
       </c>
       <c r="Q7">
-        <v>14.850283940325</v>
+        <v>12.389308903335</v>
       </c>
       <c r="R7">
-        <v>133.652555462925</v>
+        <v>111.503780130015</v>
       </c>
       <c r="S7">
-        <v>0.0185374392504108</v>
+        <v>0.01861630121797802</v>
       </c>
       <c r="T7">
-        <v>0.01853743925041079</v>
+        <v>0.01861630121797802</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>9.556730999999999</v>
       </c>
       <c r="I8">
-        <v>0.3590833569140672</v>
+        <v>0.4308548451232278</v>
       </c>
       <c r="J8">
-        <v>0.3590833569140671</v>
+        <v>0.4308548451232279</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>233.448043</v>
       </c>
       <c r="O8">
-        <v>0.8617410799646796</v>
+        <v>0.86451478461177</v>
       </c>
       <c r="P8">
-        <v>0.8617410799646797</v>
+        <v>0.8645147846117699</v>
       </c>
       <c r="Q8">
         <v>247.888905491937</v>
@@ -948,10 +948,10 @@
         <v>2231.000149427432</v>
       </c>
       <c r="S8">
-        <v>0.3094368797844708</v>
+        <v>0.3724803836306448</v>
       </c>
       <c r="T8">
-        <v>0.3094368797844708</v>
+        <v>0.3724803836306448</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>9.556730999999999</v>
       </c>
       <c r="I9">
-        <v>0.3590833569140672</v>
+        <v>0.4308548451232278</v>
       </c>
       <c r="J9">
-        <v>0.3590833569140671</v>
+        <v>0.4308548451232279</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.524995</v>
+        <v>0.359731</v>
       </c>
       <c r="N9">
-        <v>1.574985</v>
+        <v>1.079193</v>
       </c>
       <c r="O9">
-        <v>0.005813838734249621</v>
+        <v>0.003996513707975397</v>
       </c>
       <c r="P9">
-        <v>0.005813838734249622</v>
+        <v>0.003996513707975397</v>
       </c>
       <c r="Q9">
-        <v>1.672411997115</v>
+        <v>1.145950799787</v>
       </c>
       <c r="R9">
-        <v>15.051707974035</v>
+        <v>10.313557198083</v>
       </c>
       <c r="S9">
-        <v>0.002087652729251386</v>
+        <v>0.001721917294682597</v>
       </c>
       <c r="T9">
-        <v>0.002087652729251385</v>
+        <v>0.001721917294682597</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>9.556730999999999</v>
       </c>
       <c r="I10">
-        <v>0.3590833569140672</v>
+        <v>0.4308548451232278</v>
       </c>
       <c r="J10">
-        <v>0.3590833569140671</v>
+        <v>0.4308548451232279</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.804242666666666</v>
+        <v>7.581867</v>
       </c>
       <c r="N10">
-        <v>20.412728</v>
+        <v>22.745601</v>
       </c>
       <c r="O10">
-        <v>0.07535075490757169</v>
+        <v>0.08423248315420773</v>
       </c>
       <c r="P10">
-        <v>0.07535075490757169</v>
+        <v>0.08423248315420773</v>
       </c>
       <c r="Q10">
-        <v>21.675438941352</v>
+        <v>24.152621132259</v>
       </c>
       <c r="R10">
-        <v>195.078950472168</v>
+        <v>217.373590190331</v>
       </c>
       <c r="S10">
-        <v>0.02705720201821997</v>
+        <v>0.03629197348375107</v>
       </c>
       <c r="T10">
-        <v>0.02705720201821996</v>
+        <v>0.03629197348375107</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>9.556730999999999</v>
       </c>
       <c r="I11">
-        <v>0.3590833569140672</v>
+        <v>0.4308548451232278</v>
       </c>
       <c r="J11">
-        <v>0.3590833569140671</v>
+        <v>0.4308548451232279</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.4939453333333334</v>
+        <v>0.3644006666666667</v>
       </c>
       <c r="N11">
-        <v>1.481836</v>
+        <v>1.093202</v>
       </c>
       <c r="O11">
-        <v>0.005469992117134781</v>
+        <v>0.004048392436372474</v>
       </c>
       <c r="P11">
-        <v>0.005469992117134781</v>
+        <v>0.004048392436372474</v>
       </c>
       <c r="Q11">
-        <v>1.573500893124</v>
+        <v>1.160826382518</v>
       </c>
       <c r="R11">
-        <v>14.161508038116</v>
+        <v>10.447437442662</v>
       </c>
       <c r="S11">
-        <v>0.001964183131714243</v>
+        <v>0.001744269496171309</v>
       </c>
       <c r="T11">
-        <v>0.001964183131714242</v>
+        <v>0.00174426949617131</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.3858173333333333</v>
+        <v>0.2032796666666667</v>
       </c>
       <c r="H12">
-        <v>1.157452</v>
+        <v>0.609839</v>
       </c>
       <c r="I12">
-        <v>0.04348994961006027</v>
+        <v>0.02749392945088694</v>
       </c>
       <c r="J12">
-        <v>0.04348994961006027</v>
+        <v>0.02749392945088694</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.661725</v>
+        <v>3.889188333333333</v>
       </c>
       <c r="N12">
-        <v>13.985175</v>
+        <v>11.667565</v>
       </c>
       <c r="O12">
-        <v>0.05162433427636418</v>
+        <v>0.04320782608967438</v>
       </c>
       <c r="P12">
-        <v>0.05162433427636419</v>
+        <v>0.04320782608967438</v>
       </c>
       <c r="Q12">
-        <v>1.798574308233333</v>
+        <v>0.7905929080038888</v>
       </c>
       <c r="R12">
-        <v>16.1871687741</v>
+        <v>7.115336172035</v>
       </c>
       <c r="S12">
-        <v>0.002245139696331985</v>
+        <v>0.001187952922235699</v>
       </c>
       <c r="T12">
-        <v>0.002245139696331986</v>
+        <v>0.0011879529222357</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.3858173333333333</v>
+        <v>0.2032796666666667</v>
       </c>
       <c r="H13">
-        <v>1.157452</v>
+        <v>0.609839</v>
       </c>
       <c r="I13">
-        <v>0.04348994961006027</v>
+        <v>0.02749392945088694</v>
       </c>
       <c r="J13">
-        <v>0.04348994961006027</v>
+        <v>0.02749392945088694</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>233.448043</v>
       </c>
       <c r="O13">
-        <v>0.8617410799646796</v>
+        <v>0.86451478461177</v>
       </c>
       <c r="P13">
-        <v>0.8617410799646797</v>
+        <v>0.8645147846117699</v>
       </c>
       <c r="Q13">
-        <v>30.02276714071511</v>
+        <v>15.81841345500855</v>
       </c>
       <c r="R13">
-        <v>270.204904266436</v>
+        <v>142.365721095077</v>
       </c>
       <c r="S13">
-        <v>0.03747707614458283</v>
+        <v>0.02376890849736472</v>
       </c>
       <c r="T13">
-        <v>0.03747707614458284</v>
+        <v>0.02376890849736472</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.3858173333333333</v>
+        <v>0.2032796666666667</v>
       </c>
       <c r="H14">
-        <v>1.157452</v>
+        <v>0.609839</v>
       </c>
       <c r="I14">
-        <v>0.04348994961006027</v>
+        <v>0.02749392945088694</v>
       </c>
       <c r="J14">
-        <v>0.04348994961006027</v>
+        <v>0.02749392945088694</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.524995</v>
+        <v>0.359731</v>
       </c>
       <c r="N14">
-        <v>1.574985</v>
+        <v>1.079193</v>
       </c>
       <c r="O14">
-        <v>0.005813838734249621</v>
+        <v>0.003996513707975397</v>
       </c>
       <c r="P14">
-        <v>0.005813838734249622</v>
+        <v>0.003996513707975397</v>
       </c>
       <c r="Q14">
-        <v>0.2025521709133333</v>
+        <v>0.07312599776966668</v>
       </c>
       <c r="R14">
-        <v>1.82296953822</v>
+        <v>0.6581339799270001</v>
       </c>
       <c r="S14">
-        <v>0.0002528435535935326</v>
+        <v>0.0001098798659365781</v>
       </c>
       <c r="T14">
-        <v>0.0002528435535935326</v>
+        <v>0.0001098798659365781</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.3858173333333333</v>
+        <v>0.2032796666666667</v>
       </c>
       <c r="H15">
-        <v>1.157452</v>
+        <v>0.609839</v>
       </c>
       <c r="I15">
-        <v>0.04348994961006027</v>
+        <v>0.02749392945088694</v>
       </c>
       <c r="J15">
-        <v>0.04348994961006027</v>
+        <v>0.02749392945088694</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>6.804242666666666</v>
+        <v>7.581867</v>
       </c>
       <c r="N15">
-        <v>20.412728</v>
+        <v>22.745601</v>
       </c>
       <c r="O15">
-        <v>0.07535075490757169</v>
+        <v>0.08423248315420773</v>
       </c>
       <c r="P15">
-        <v>0.07535075490757169</v>
+        <v>0.08423248315420773</v>
       </c>
       <c r="Q15">
-        <v>2.625194761006222</v>
+        <v>1.541239396471</v>
       </c>
       <c r="R15">
-        <v>23.626752849056</v>
+        <v>13.871154568239</v>
       </c>
       <c r="S15">
-        <v>0.003277000534010294</v>
+        <v>0.00231588194931481</v>
       </c>
       <c r="T15">
-        <v>0.003277000534010294</v>
+        <v>0.00231588194931481</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,22 +1402,22 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.3858173333333333</v>
+        <v>0.2032796666666667</v>
       </c>
       <c r="H16">
-        <v>1.157452</v>
+        <v>0.609839</v>
       </c>
       <c r="I16">
-        <v>0.04348994961006027</v>
+        <v>0.02749392945088694</v>
       </c>
       <c r="J16">
-        <v>0.04348994961006027</v>
+        <v>0.02749392945088694</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.4939453333333334</v>
+        <v>0.3644006666666667</v>
       </c>
       <c r="N16">
-        <v>1.481836</v>
+        <v>1.093202</v>
       </c>
       <c r="O16">
-        <v>0.005469992117134781</v>
+        <v>0.004048392436372474</v>
       </c>
       <c r="P16">
-        <v>0.005469992117134781</v>
+        <v>0.004048392436372474</v>
       </c>
       <c r="Q16">
-        <v>0.1905726713191111</v>
+        <v>0.07407524605311111</v>
       </c>
       <c r="R16">
-        <v>1.715154041872</v>
+        <v>0.666677214478</v>
       </c>
       <c r="S16">
-        <v>0.0002378896815416185</v>
+        <v>0.0001113062160351291</v>
       </c>
       <c r="T16">
-        <v>0.0002378896815416185</v>
+        <v>0.0001113062160351291</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.766917</v>
+        <v>2.061212666666667</v>
       </c>
       <c r="H17">
-        <v>8.300751</v>
+        <v>6.183638</v>
       </c>
       <c r="I17">
-        <v>0.3118913291571982</v>
+        <v>0.2787826080683977</v>
       </c>
       <c r="J17">
-        <v>0.3118913291571982</v>
+        <v>0.2787826080683978</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.661725</v>
+        <v>3.889188333333333</v>
       </c>
       <c r="N17">
-        <v>13.985175</v>
+        <v>11.667565</v>
       </c>
       <c r="O17">
-        <v>0.05162433427636418</v>
+        <v>0.04320782608967438</v>
       </c>
       <c r="P17">
-        <v>0.05162433427636419</v>
+        <v>0.04320782608967438</v>
       </c>
       <c r="Q17">
-        <v>12.898606151825</v>
+        <v>8.016444255718888</v>
       </c>
       <c r="R17">
-        <v>116.087455366425</v>
+        <v>72.14799830147</v>
       </c>
       <c r="S17">
-        <v>0.01610118223431073</v>
+        <v>0.01204559044624518</v>
       </c>
       <c r="T17">
-        <v>0.01610118223431073</v>
+        <v>0.01204559044624518</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.766917</v>
+        <v>2.061212666666667</v>
       </c>
       <c r="H18">
-        <v>8.300751</v>
+        <v>6.183638</v>
       </c>
       <c r="I18">
-        <v>0.3118913291571982</v>
+        <v>0.2787826080683977</v>
       </c>
       <c r="J18">
-        <v>0.3118913291571982</v>
+        <v>0.2787826080683978</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>233.448043</v>
       </c>
       <c r="O18">
-        <v>0.8617410799646796</v>
+        <v>0.86451478461177</v>
       </c>
       <c r="P18">
-        <v>0.8617410799646797</v>
+        <v>0.8645147846117699</v>
       </c>
       <c r="Q18">
-        <v>215.3104529311436</v>
+        <v>160.3953544133815</v>
       </c>
       <c r="R18">
-        <v>1937.794076380293</v>
+        <v>1443.558189720434</v>
       </c>
       <c r="S18">
-        <v>0.2687695708195434</v>
+        <v>0.2410116863677583</v>
       </c>
       <c r="T18">
-        <v>0.2687695708195434</v>
+        <v>0.2410116863677584</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.766917</v>
+        <v>2.061212666666667</v>
       </c>
       <c r="H19">
-        <v>8.300751</v>
+        <v>6.183638</v>
       </c>
       <c r="I19">
-        <v>0.3118913291571982</v>
+        <v>0.2787826080683977</v>
       </c>
       <c r="J19">
-        <v>0.3118913291571982</v>
+        <v>0.2787826080683978</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.524995</v>
+        <v>0.359731</v>
       </c>
       <c r="N19">
-        <v>1.574985</v>
+        <v>1.079193</v>
       </c>
       <c r="O19">
-        <v>0.005813838734249621</v>
+        <v>0.003996513707975397</v>
       </c>
       <c r="P19">
-        <v>0.005813838734249622</v>
+        <v>0.003996513707975397</v>
       </c>
       <c r="Q19">
-        <v>1.452617590415</v>
+        <v>0.7414820937926667</v>
       </c>
       <c r="R19">
-        <v>13.073558313735</v>
+        <v>6.673338844134</v>
       </c>
       <c r="S19">
-        <v>0.001813285890330717</v>
+        <v>0.001114158514690484</v>
       </c>
       <c r="T19">
-        <v>0.001813285890330717</v>
+        <v>0.001114158514690484</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.766917</v>
+        <v>2.061212666666667</v>
       </c>
       <c r="H20">
-        <v>8.300751</v>
+        <v>6.183638</v>
       </c>
       <c r="I20">
-        <v>0.3118913291571982</v>
+        <v>0.2787826080683977</v>
       </c>
       <c r="J20">
-        <v>0.3118913291571982</v>
+        <v>0.2787826080683978</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>6.804242666666666</v>
+        <v>7.581867</v>
       </c>
       <c r="N20">
-        <v>20.412728</v>
+        <v>22.745601</v>
       </c>
       <c r="O20">
-        <v>0.07535075490757169</v>
+        <v>0.08423248315420773</v>
       </c>
       <c r="P20">
-        <v>0.07535075490757169</v>
+        <v>0.08423248315420773</v>
       </c>
       <c r="Q20">
-        <v>18.82677470652533</v>
+        <v>15.627840297382</v>
       </c>
       <c r="R20">
-        <v>169.440972358728</v>
+        <v>140.650562676438</v>
       </c>
       <c r="S20">
-        <v>0.02350124710112081</v>
+        <v>0.0234825513378074</v>
       </c>
       <c r="T20">
-        <v>0.02350124710112081</v>
+        <v>0.02348255133780741</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>2.766917</v>
+        <v>2.061212666666667</v>
       </c>
       <c r="H21">
-        <v>8.300751</v>
+        <v>6.183638</v>
       </c>
       <c r="I21">
-        <v>0.3118913291571982</v>
+        <v>0.2787826080683977</v>
       </c>
       <c r="J21">
-        <v>0.3118913291571982</v>
+        <v>0.2787826080683978</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.4939453333333334</v>
+        <v>0.3644006666666667</v>
       </c>
       <c r="N21">
-        <v>1.481836</v>
+        <v>1.093202</v>
       </c>
       <c r="O21">
-        <v>0.005469992117134781</v>
+        <v>0.004048392436372474</v>
       </c>
       <c r="P21">
-        <v>0.005469992117134781</v>
+        <v>0.004048392436372474</v>
       </c>
       <c r="Q21">
-        <v>1.366705739870667</v>
+        <v>0.751107269875111</v>
       </c>
       <c r="R21">
-        <v>12.300351658836</v>
+        <v>6.759965428876</v>
       </c>
       <c r="S21">
-        <v>0.001706043111892564</v>
+        <v>0.001128621401896293</v>
       </c>
       <c r="T21">
-        <v>0.001706043111892563</v>
+        <v>0.001128621401896293</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0.2982303333333333</v>
+        <v>0.4188103333333333</v>
       </c>
       <c r="H22">
-        <v>0.894691</v>
+        <v>1.256431</v>
       </c>
       <c r="I22">
-        <v>0.03361700226581701</v>
+        <v>0.05664482801839063</v>
       </c>
       <c r="J22">
-        <v>0.03361700226581701</v>
+        <v>0.05664482801839064</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>4.661725</v>
+        <v>3.889188333333333</v>
       </c>
       <c r="N22">
-        <v>13.985175</v>
+        <v>11.667565</v>
       </c>
       <c r="O22">
-        <v>0.05162433427636418</v>
+        <v>0.04320782608967438</v>
       </c>
       <c r="P22">
-        <v>0.05162433427636419</v>
+        <v>0.04320782608967438</v>
       </c>
       <c r="Q22">
-        <v>1.390267800658333</v>
+        <v>1.628832262279444</v>
       </c>
       <c r="R22">
-        <v>12.512410205925</v>
+        <v>14.659490360515</v>
       </c>
       <c r="S22">
-        <v>0.00173545536233983</v>
+        <v>0.002447499877898137</v>
       </c>
       <c r="T22">
-        <v>0.00173545536233983</v>
+        <v>0.002447499877898138</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0.2982303333333333</v>
+        <v>0.4188103333333333</v>
       </c>
       <c r="H23">
-        <v>0.894691</v>
+        <v>1.256431</v>
       </c>
       <c r="I23">
-        <v>0.03361700226581701</v>
+        <v>0.05664482801839063</v>
       </c>
       <c r="J23">
-        <v>0.03361700226581701</v>
+        <v>0.05664482801839064</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>233.448043</v>
       </c>
       <c r="O23">
-        <v>0.8617410799646796</v>
+        <v>0.86451478461177</v>
       </c>
       <c r="P23">
-        <v>0.8617410799646797</v>
+        <v>0.8645147846117699</v>
       </c>
       <c r="Q23">
-        <v>23.20709589330144</v>
+        <v>32.59015090161478</v>
       </c>
       <c r="R23">
-        <v>208.863863039713</v>
+        <v>293.311358114533</v>
       </c>
       <c r="S23">
-        <v>0.02896915183772024</v>
+        <v>0.04897029129368973</v>
       </c>
       <c r="T23">
-        <v>0.02896915183772024</v>
+        <v>0.04897029129368974</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0.2982303333333333</v>
+        <v>0.4188103333333333</v>
       </c>
       <c r="H24">
-        <v>0.894691</v>
+        <v>1.256431</v>
       </c>
       <c r="I24">
-        <v>0.03361700226581701</v>
+        <v>0.05664482801839063</v>
       </c>
       <c r="J24">
-        <v>0.03361700226581701</v>
+        <v>0.05664482801839064</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.524995</v>
+        <v>0.359731</v>
       </c>
       <c r="N24">
-        <v>1.574985</v>
+        <v>1.079193</v>
       </c>
       <c r="O24">
-        <v>0.005813838734249621</v>
+        <v>0.003996513707975397</v>
       </c>
       <c r="P24">
-        <v>0.005813838734249622</v>
+        <v>0.003996513707975397</v>
       </c>
       <c r="Q24">
-        <v>0.1565694338483333</v>
+        <v>0.1506590600203334</v>
       </c>
       <c r="R24">
-        <v>1.409124904635</v>
+        <v>1.355931540183</v>
       </c>
       <c r="S24">
-        <v>0.0001954438299023642</v>
+        <v>0.000226381831661407</v>
       </c>
       <c r="T24">
-        <v>0.0001954438299023643</v>
+        <v>0.0002263818316614071</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0.2982303333333333</v>
+        <v>0.4188103333333333</v>
       </c>
       <c r="H25">
-        <v>0.894691</v>
+        <v>1.256431</v>
       </c>
       <c r="I25">
-        <v>0.03361700226581701</v>
+        <v>0.05664482801839063</v>
       </c>
       <c r="J25">
-        <v>0.03361700226581701</v>
+        <v>0.05664482801839064</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>6.804242666666666</v>
+        <v>7.581867</v>
       </c>
       <c r="N25">
-        <v>20.412728</v>
+        <v>22.745601</v>
       </c>
       <c r="O25">
-        <v>0.07535075490757169</v>
+        <v>0.08423248315420773</v>
       </c>
       <c r="P25">
-        <v>0.07535075490757169</v>
+        <v>0.08423248315420773</v>
       </c>
       <c r="Q25">
-        <v>2.029231558560889</v>
+        <v>3.175364245559</v>
       </c>
       <c r="R25">
-        <v>18.263084027048</v>
+        <v>28.578278210031</v>
       </c>
       <c r="S25">
-        <v>0.00253306649845886</v>
+        <v>0.004771334521832082</v>
       </c>
       <c r="T25">
-        <v>0.00253306649845886</v>
+        <v>0.004771334521832084</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,22 +2022,22 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>0.2982303333333333</v>
+        <v>0.4188103333333333</v>
       </c>
       <c r="H26">
-        <v>0.894691</v>
+        <v>1.256431</v>
       </c>
       <c r="I26">
-        <v>0.03361700226581701</v>
+        <v>0.05664482801839063</v>
       </c>
       <c r="J26">
-        <v>0.03361700226581701</v>
+        <v>0.05664482801839064</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.4939453333333334</v>
+        <v>0.3644006666666667</v>
       </c>
       <c r="N26">
-        <v>1.481836</v>
+        <v>1.093202</v>
       </c>
       <c r="O26">
-        <v>0.005469992117134781</v>
+        <v>0.004048392436372474</v>
       </c>
       <c r="P26">
-        <v>0.005469992117134781</v>
+        <v>0.004048392436372474</v>
       </c>
       <c r="Q26">
-        <v>0.1473094814084445</v>
+        <v>0.1526147646735556</v>
       </c>
       <c r="R26">
-        <v>1.325785332676</v>
+        <v>1.373532882062</v>
       </c>
       <c r="S26">
-        <v>0.0001838847373957211</v>
+        <v>0.0002293204933092722</v>
       </c>
       <c r="T26">
-        <v>0.0001838847373957211</v>
+        <v>0.0002293204933092723</v>
       </c>
     </row>
   </sheetData>
